--- a/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_马丁组.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.4.0 20170314/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.3 20170314/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560"/>
+    <workbookView xWindow="-4860" yWindow="-19160" windowWidth="28720" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.3新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.3新特性|Fix Bug'!$A$1:$W$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.3新特性|Fix Bug'!$A$1:$W$15</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
   <si>
     <t>No</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>李萌</t>
-  </si>
-  <si>
-    <t>DV-1906</t>
   </si>
   <si>
     <t>上线版本</t>
@@ -270,16 +267,6 @@
     <t>修正负责人</t>
   </si>
   <si>
-    <t>KA账号部分</t>
-    <rPh sb="2" eb="3">
-      <t>zhang'hao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu'fen</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>BS审核小区/大楼照片，无法单独删除照片</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -298,14 +285,6 @@
   </si>
   <si>
     <t>DV-2841</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇分首页显示调整</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -341,6 +320,30 @@
   <si>
     <t>BS,partnerPC</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>许倩</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qian</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guo</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇分首页显示调整</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2809</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
@@ -359,6 +362,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -366,32 +370,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -399,12 +404,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -412,54 +419,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF3B73AF"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -467,6 +475,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -474,28 +483,31 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -555,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -686,19 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -735,6 +734,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -772,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,18 +1016,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,15 +1031,15 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="13" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,16 +1058,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,6 +1105,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1447,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X162"/>
+  <dimension ref="A1:X161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1478,7 +1517,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -1530,16 +1569,16 @@
       <c r="Q1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="101" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="54" t="s">
@@ -1560,19 +1599,19 @@
         <v>24</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G2" s="57" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="58">
-        <v>42802</v>
+        <v>42804</v>
       </c>
       <c r="I2" s="57" t="s">
         <v>26</v>
@@ -1582,7 +1621,7 @@
       </c>
       <c r="K2" s="57"/>
       <c r="L2" s="67" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M2" s="57" t="s">
         <v>27</v>
@@ -1593,19 +1632,25 @@
       <c r="O2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="72"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
-    </row>
-    <row r="3" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="P2" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="58">
+        <v>42807</v>
+      </c>
+      <c r="R2" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="73"/>
+    </row>
+    <row r="3" spans="1:24" s="50" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="55">
         <v>2</v>
       </c>
@@ -1616,13 +1661,13 @@
         <v>24</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>26</v>
@@ -1638,7 +1683,7 @@
       </c>
       <c r="K3" s="57"/>
       <c r="L3" s="67" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M3" s="57" t="s">
         <v>27</v>
@@ -1649,19 +1694,25 @@
       <c r="O3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75"/>
-    </row>
-    <row r="4" spans="1:24" s="50" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P3" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="58">
+        <v>42807</v>
+      </c>
+      <c r="R3" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="73"/>
+    </row>
+    <row r="4" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="55">
         <v>3</v>
       </c>
@@ -1672,13 +1723,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E4" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G4" s="57" t="s">
         <v>26</v>
@@ -1694,7 +1745,7 @@
       </c>
       <c r="K4" s="57"/>
       <c r="L4" s="67" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M4" s="57" t="s">
         <v>27</v>
@@ -1705,17 +1756,23 @@
       <c r="O4" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="76"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
+      <c r="P4" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="58">
+        <v>42807</v>
+      </c>
+      <c r="R4" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="79"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="55">
@@ -1728,13 +1785,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>26</v>
@@ -1750,7 +1807,7 @@
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="67" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M5" s="57" t="s">
         <v>27</v>
@@ -1761,17 +1818,23 @@
       <c r="O5" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="75"/>
+      <c r="P5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="58">
+        <v>42807</v>
+      </c>
+      <c r="R5" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="55">
@@ -1783,14 +1846,14 @@
       <c r="C6" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>86</v>
+      <c r="D6" s="59" t="s">
+        <v>90</v>
       </c>
       <c r="E6" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G6" s="57" t="s">
         <v>26</v>
@@ -1806,7 +1869,7 @@
       </c>
       <c r="K6" s="57"/>
       <c r="L6" s="67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>27</v>
@@ -1815,79 +1878,57 @@
         <v>28</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" s="76"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="P6" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="58">
+        <v>42807</v>
+      </c>
+      <c r="R6" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="55">
-        <v>6</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="58">
-        <v>42804</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="58">
-        <v>42804</v>
-      </c>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="57"/>
-      <c r="L7" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>29</v>
-      </c>
+      <c r="L7" s="67"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
       <c r="P7" s="67"/>
       <c r="Q7" s="58"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="76"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="74"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="75"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
     </row>
     <row r="8" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
-      <c r="D8" s="59"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
@@ -1901,13 +1942,13 @@
       <c r="O8" s="57"/>
       <c r="P8" s="67"/>
       <c r="Q8" s="58"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="76"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="74"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="75"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="73"/>
     </row>
     <row r="9" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="55"/>
@@ -1927,15 +1968,15 @@
       <c r="O9" s="57"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="58"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="76"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="74"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="75"/>
-    </row>
-    <row r="10" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="V9" s="71"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="73"/>
+    </row>
+    <row r="10" spans="1:24" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -1953,15 +1994,15 @@
       <c r="O10" s="57"/>
       <c r="P10" s="67"/>
       <c r="Q10" s="58"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="76"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="80"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="75"/>
-    </row>
-    <row r="11" spans="1:24" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="V10" s="64"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="73"/>
+    </row>
+    <row r="11" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
@@ -1979,13 +2020,13 @@
       <c r="O11" s="57"/>
       <c r="P11" s="67"/>
       <c r="Q11" s="58"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="82"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="74"/>
       <c r="U11" s="64"/>
       <c r="V11" s="64"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="75"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="73"/>
     </row>
     <row r="12" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="55"/>
@@ -2005,15 +2046,15 @@
       <c r="O12" s="57"/>
       <c r="P12" s="67"/>
       <c r="Q12" s="58"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="76"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="74"/>
       <c r="U12" s="64"/>
       <c r="V12" s="64"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="75"/>
-    </row>
-    <row r="13" spans="1:24" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="W12" s="81"/>
+      <c r="X12" s="73"/>
+    </row>
+    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -2024,20 +2065,19 @@
       <c r="H13" s="58"/>
       <c r="I13" s="57"/>
       <c r="J13" s="58"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="67"/>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
       <c r="O13" s="57"/>
       <c r="P13" s="67"/>
       <c r="Q13" s="58"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="76"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="74"/>
       <c r="U13" s="64"/>
       <c r="V13" s="64"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="75"/>
+      <c r="W13" s="65"/>
     </row>
     <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="55"/>
@@ -2057,9 +2097,9 @@
       <c r="O14" s="57"/>
       <c r="P14" s="67"/>
       <c r="Q14" s="58"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="76"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="74"/>
       <c r="U14" s="64"/>
       <c r="V14" s="64"/>
       <c r="W14" s="65"/>
@@ -2082,9 +2122,9 @@
       <c r="O15" s="57"/>
       <c r="P15" s="67"/>
       <c r="Q15" s="58"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="76"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="74"/>
       <c r="U15" s="64"/>
       <c r="V15" s="64"/>
       <c r="W15" s="65"/>
@@ -2093,26 +2133,26 @@
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="60"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="57"/>
       <c r="H16" s="58"/>
       <c r="I16" s="57"/>
       <c r="J16" s="58"/>
-      <c r="K16" s="68"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="67"/>
       <c r="M16" s="57"/>
       <c r="N16" s="57"/>
       <c r="O16" s="57"/>
       <c r="P16" s="67"/>
       <c r="Q16" s="58"/>
-      <c r="R16" s="70"/>
+      <c r="R16" s="69"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="76"/>
+      <c r="T16" s="74"/>
       <c r="U16" s="64"/>
       <c r="V16" s="64"/>
-      <c r="W16" s="65"/>
+      <c r="W16" s="72"/>
     </row>
     <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="55"/>
@@ -2132,12 +2172,12 @@
       <c r="O17" s="57"/>
       <c r="P17" s="67"/>
       <c r="Q17" s="58"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="74"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="85"/>
     </row>
     <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="55"/>
@@ -2157,12 +2197,12 @@
       <c r="O18" s="57"/>
       <c r="P18" s="67"/>
       <c r="Q18" s="58"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="87"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="85"/>
     </row>
     <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="55"/>
@@ -2182,12 +2222,12 @@
       <c r="O19" s="57"/>
       <c r="P19" s="67"/>
       <c r="Q19" s="58"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="87"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="85"/>
     </row>
     <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -2204,15 +2244,15 @@
       <c r="L20" s="67"/>
       <c r="M20" s="57"/>
       <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
+      <c r="O20" s="67"/>
       <c r="P20" s="67"/>
       <c r="Q20" s="58"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="87"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="67"/>
     </row>
     <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="55"/>
@@ -2233,11 +2273,11 @@
       <c r="P21" s="67"/>
       <c r="Q21" s="58"/>
       <c r="R21" s="67"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="67"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="72"/>
     </row>
     <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
@@ -2262,7 +2302,7 @@
       <c r="T22" s="64"/>
       <c r="U22" s="64"/>
       <c r="V22" s="64"/>
-      <c r="W22" s="74"/>
+      <c r="W22" s="72"/>
     </row>
     <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="55"/>
@@ -2287,7 +2327,7 @@
       <c r="T23" s="64"/>
       <c r="U23" s="64"/>
       <c r="V23" s="64"/>
-      <c r="W23" s="74"/>
+      <c r="W23" s="72"/>
     </row>
     <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="55"/>
@@ -2300,7 +2340,7 @@
       <c r="H24" s="58"/>
       <c r="I24" s="57"/>
       <c r="J24" s="58"/>
-      <c r="K24" s="57"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="67"/>
       <c r="M24" s="57"/>
       <c r="N24" s="57"/>
@@ -2308,36 +2348,36 @@
       <c r="P24" s="67"/>
       <c r="Q24" s="58"/>
       <c r="R24" s="67"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="74"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="85"/>
     </row>
     <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="59"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="57"/>
-      <c r="F25" s="61"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="57"/>
       <c r="H25" s="58"/>
       <c r="I25" s="57"/>
       <c r="J25" s="58"/>
-      <c r="K25" s="61"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="67"/>
       <c r="M25" s="57"/>
       <c r="N25" s="57"/>
-      <c r="O25" s="67"/>
+      <c r="O25" s="57"/>
       <c r="P25" s="67"/>
       <c r="Q25" s="58"/>
       <c r="R25" s="67"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="87"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="89"/>
     </row>
     <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="55"/>
@@ -2362,7 +2402,7 @@
       <c r="T26" s="64"/>
       <c r="U26" s="64"/>
       <c r="V26" s="64"/>
-      <c r="W26" s="91"/>
+      <c r="W26" s="72"/>
     </row>
     <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="55"/>
@@ -2387,7 +2427,7 @@
       <c r="T27" s="64"/>
       <c r="U27" s="64"/>
       <c r="V27" s="64"/>
-      <c r="W27" s="74"/>
+      <c r="W27" s="72"/>
     </row>
     <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="55"/>
@@ -2412,7 +2452,7 @@
       <c r="T28" s="64"/>
       <c r="U28" s="64"/>
       <c r="V28" s="64"/>
-      <c r="W28" s="74"/>
+      <c r="W28" s="72"/>
     </row>
     <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="55"/>
@@ -2437,7 +2477,7 @@
       <c r="T29" s="64"/>
       <c r="U29" s="64"/>
       <c r="V29" s="64"/>
-      <c r="W29" s="74"/>
+      <c r="W29" s="72"/>
     </row>
     <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="55"/>
@@ -2462,7 +2502,7 @@
       <c r="T30" s="64"/>
       <c r="U30" s="64"/>
       <c r="V30" s="64"/>
-      <c r="W30" s="74"/>
+      <c r="W30" s="72"/>
     </row>
     <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="55"/>
@@ -2487,7 +2527,7 @@
       <c r="T31" s="64"/>
       <c r="U31" s="64"/>
       <c r="V31" s="64"/>
-      <c r="W31" s="74"/>
+      <c r="W31" s="72"/>
     </row>
     <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="55"/>
@@ -2512,7 +2552,7 @@
       <c r="T32" s="64"/>
       <c r="U32" s="64"/>
       <c r="V32" s="64"/>
-      <c r="W32" s="74"/>
+      <c r="W32" s="72"/>
     </row>
     <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="55"/>
@@ -2537,7 +2577,7 @@
       <c r="T33" s="64"/>
       <c r="U33" s="64"/>
       <c r="V33" s="64"/>
-      <c r="W33" s="74"/>
+      <c r="W33" s="72"/>
     </row>
     <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="55"/>
@@ -2562,7 +2602,7 @@
       <c r="T34" s="64"/>
       <c r="U34" s="64"/>
       <c r="V34" s="64"/>
-      <c r="W34" s="74"/>
+      <c r="W34" s="72"/>
     </row>
     <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="55"/>
@@ -2587,32 +2627,32 @@
       <c r="T35" s="64"/>
       <c r="U35" s="64"/>
       <c r="V35" s="64"/>
-      <c r="W35" s="74"/>
+      <c r="W35" s="72"/>
     </row>
     <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
-      <c r="D36" s="60"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
       <c r="G36" s="57"/>
       <c r="H36" s="58"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="58"/>
       <c r="K36" s="57"/>
       <c r="L36" s="67"/>
-      <c r="M36" s="57"/>
+      <c r="M36" s="67"/>
       <c r="N36" s="57"/>
       <c r="O36" s="57"/>
       <c r="P36" s="67"/>
       <c r="Q36" s="58"/>
       <c r="R36" s="67"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="74"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="72"/>
     </row>
     <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="55"/>
@@ -2633,24 +2673,24 @@
       <c r="P37" s="67"/>
       <c r="Q37" s="58"/>
       <c r="R37" s="67"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="74"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="72"/>
     </row>
     <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="55"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
-      <c r="D38" s="62"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="58"/>
       <c r="I38" s="58"/>
       <c r="J38" s="58"/>
-      <c r="K38" s="57"/>
+      <c r="K38" s="68"/>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
       <c r="N38" s="57"/>
@@ -2658,11 +2698,11 @@
       <c r="P38" s="67"/>
       <c r="Q38" s="58"/>
       <c r="R38" s="67"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="74"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="65"/>
     </row>
     <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="55"/>
@@ -2815,24 +2855,24 @@
       <c r="W44" s="65"/>
     </row>
     <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="57"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="64"/>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="66"/>
       <c r="K45" s="68"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
       <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="67"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="65"/>
       <c r="S45" s="64"/>
       <c r="T45" s="64"/>
       <c r="U45" s="64"/>
@@ -3221,7 +3261,7 @@
       <c r="D61" s="65"/>
       <c r="E61" s="64"/>
       <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
+      <c r="G61" s="64"/>
       <c r="H61" s="66"/>
       <c r="I61" s="64"/>
       <c r="J61" s="66"/>
@@ -3370,7 +3410,7 @@
       <c r="C67" s="64"/>
       <c r="D67" s="65"/>
       <c r="E67" s="64"/>
-      <c r="F67" s="57"/>
+      <c r="F67" s="64"/>
       <c r="G67" s="64"/>
       <c r="H67" s="66"/>
       <c r="I67" s="64"/>
@@ -3464,7 +3504,7 @@
       <c r="V70" s="64"/>
       <c r="W70" s="65"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A71" s="64"/>
       <c r="B71" s="64"/>
       <c r="C71" s="64"/>
@@ -3478,7 +3518,7 @@
       <c r="K71" s="68"/>
       <c r="L71" s="64"/>
       <c r="M71" s="64"/>
-      <c r="N71" s="57"/>
+      <c r="N71" s="64"/>
       <c r="O71" s="64"/>
       <c r="P71" s="64"/>
       <c r="Q71" s="66"/>
@@ -4883,10 +4923,6 @@
       <c r="P127" s="64"/>
       <c r="Q127" s="66"/>
       <c r="R127" s="65"/>
-      <c r="S127" s="64"/>
-      <c r="T127" s="64"/>
-      <c r="U127" s="64"/>
-      <c r="V127" s="64"/>
       <c r="W127" s="65"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.15">
@@ -5603,27 +5639,6 @@
       <c r="R161" s="65"/>
       <c r="W161" s="65"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A162" s="64"/>
-      <c r="B162" s="64"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="64"/>
-      <c r="F162" s="64"/>
-      <c r="G162" s="64"/>
-      <c r="H162" s="66"/>
-      <c r="I162" s="64"/>
-      <c r="J162" s="66"/>
-      <c r="K162" s="68"/>
-      <c r="L162" s="64"/>
-      <c r="M162" s="64"/>
-      <c r="N162" s="64"/>
-      <c r="O162" s="64"/>
-      <c r="P162" s="64"/>
-      <c r="Q162" s="66"/>
-      <c r="R162" s="65"/>
-      <c r="W162" s="65"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="8">
@@ -5639,13 +5654,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N70">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
@@ -5656,7 +5671,7 @@
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="S3" r:id="rId2"/>
     <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S5" r:id="rId4"/>
+    <hyperlink ref="S6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5693,55 +5708,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="M1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="35" t="s">
         <v>45</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>46</v>
       </c>
       <c r="R1" s="35" t="s">
         <v>22</v>
@@ -5835,58 +5850,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
+      <c r="A1" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5898,8 +5913,8 @@
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -5911,8 +5926,8 @@
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -5924,8 +5939,8 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -5937,8 +5952,8 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -5950,8 +5965,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5963,8 +5978,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -5976,8 +5991,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -6038,73 +6053,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="A1" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -6352,73 +6367,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="A1" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -6666,73 +6681,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="A1" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -6982,73 +6997,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="A1" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
@@ -7293,28 +7308,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4860" yWindow="-19160" windowWidth="28720" windowHeight="17560"/>
+    <workbookView xWindow="-9600" yWindow="-21160" windowWidth="38400" windowHeight="21160"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.3新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -268,10 +268,6 @@
   </si>
   <si>
     <t>BS审核小区/大楼照片，无法单独删除照片</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告内容页宽度优化（BS&amp;房东PC）</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -318,10 +314,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>BS,partnerPC</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>许倩</t>
     <rPh sb="0" eb="1">
       <t>xu'qian</t>
@@ -344,6 +336,42 @@
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>更新renterPC安卓移动版下载包</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an'z</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi'dong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bvan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xia'zai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterPC</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <rPh sb="0" eb="1">
+      <t>da'yu</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
   </si>
 </sst>
 </file>
@@ -1079,6 +1107,15 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,15 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1489,7 +1517,7 @@
   <dimension ref="A1:X161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1569,7 +1597,7 @@
       <c r="Q1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="99" t="s">
+      <c r="R1" s="90" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -1578,7 +1606,7 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="101" t="s">
+      <c r="U1" s="92" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="54" t="s">
@@ -1605,7 +1633,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="57" t="s">
         <v>26</v>
@@ -1621,7 +1649,7 @@
       </c>
       <c r="K2" s="57"/>
       <c r="L2" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M2" s="57" t="s">
         <v>27</v>
@@ -1633,16 +1661,16 @@
         <v>29</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="58">
         <v>42807</v>
       </c>
-      <c r="R2" s="100" t="s">
-        <v>92</v>
+      <c r="R2" s="91" t="s">
+        <v>90</v>
       </c>
       <c r="S2" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="74"/>
@@ -1658,16 +1686,16 @@
         <v>23</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E3" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>26</v>
@@ -1683,7 +1711,7 @@
       </c>
       <c r="K3" s="57"/>
       <c r="L3" s="67" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M3" s="57" t="s">
         <v>27</v>
@@ -1692,19 +1720,19 @@
         <v>28</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="58">
         <v>42807</v>
       </c>
-      <c r="R3" s="100" t="s">
-        <v>92</v>
+      <c r="R3" s="91" t="s">
+        <v>90</v>
       </c>
       <c r="S3" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="74"/>
@@ -1723,13 +1751,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="57" t="s">
         <v>26</v>
@@ -1745,7 +1773,7 @@
       </c>
       <c r="K4" s="57"/>
       <c r="L4" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="57" t="s">
         <v>27</v>
@@ -1757,16 +1785,16 @@
         <v>29</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="58">
         <v>42807</v>
       </c>
-      <c r="R4" s="100" t="s">
-        <v>92</v>
+      <c r="R4" s="91" t="s">
+        <v>90</v>
       </c>
       <c r="S4" s="70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T4" s="79"/>
       <c r="U4" s="75"/>
@@ -1785,13 +1813,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>26</v>
@@ -1807,7 +1835,7 @@
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5" s="57" t="s">
         <v>27</v>
@@ -1819,16 +1847,16 @@
         <v>29</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="58">
         <v>42807</v>
       </c>
-      <c r="R5" s="100" t="s">
-        <v>92</v>
+      <c r="R5" s="91" t="s">
+        <v>90</v>
       </c>
       <c r="S5" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="74"/>
@@ -1847,13 +1875,13 @@
         <v>24</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="57" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="57" t="s">
         <v>26</v>
@@ -1869,7 +1897,7 @@
       </c>
       <c r="K6" s="57"/>
       <c r="L6" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>27</v>
@@ -1878,19 +1906,19 @@
         <v>28</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="58">
         <v>42807</v>
       </c>
-      <c r="R6" s="100" t="s">
-        <v>92</v>
+      <c r="R6" s="91" t="s">
+        <v>90</v>
       </c>
       <c r="S6" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="74"/>
@@ -5850,19 +5878,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
@@ -5900,8 +5928,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5913,8 +5941,8 @@
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -5926,8 +5954,8 @@
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -5939,8 +5967,8 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -5952,8 +5980,8 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -5965,8 +5993,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5978,8 +6006,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -5991,8 +6019,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -6053,36 +6081,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6367,36 +6395,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6681,36 +6709,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6997,36 +7025,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
